--- a/public/inv.xlsx
+++ b/public/inv.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="535">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -1611,9 +1611,6 @@
     <t>MX41010VV01005</t>
   </si>
   <si>
-    <t>No. De Serie</t>
-  </si>
-  <si>
     <t>2.40GHZ</t>
   </si>
   <si>
@@ -1633,6 +1630,15 @@
   </si>
   <si>
     <t>3.60GHZ</t>
+  </si>
+  <si>
+    <t>No De Serie</t>
+  </si>
+  <si>
+    <t>Marca Monitor</t>
+  </si>
+  <si>
+    <t>Modelo Monitor</t>
   </si>
 </sst>
 </file>
@@ -2168,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,6 +2188,8 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="39.42578125" customWidth="1"/>
@@ -2202,6 +2210,7 @@
     <col min="40" max="40" width="33.28515625" customWidth="1"/>
     <col min="41" max="41" width="16.42578125" customWidth="1"/>
     <col min="42" max="42" width="17.5703125" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" customWidth="1"/>
     <col min="44" max="44" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2222,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2243,10 +2252,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>3</v>
+        <v>533</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>4</v>
+        <v>534</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -2362,7 +2371,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>48</v>
@@ -2630,7 +2639,7 @@
         <v>91</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>93</v>
@@ -2764,7 +2773,7 @@
         <v>91</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>93</v>
@@ -2898,7 +2907,7 @@
         <v>72</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>48</v>
@@ -3166,7 +3175,7 @@
         <v>143</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>144</v>
@@ -3300,7 +3309,7 @@
         <v>72</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>48</v>
@@ -3834,7 +3843,7 @@
         <v>186</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>187</v>
@@ -4636,7 +4645,7 @@
         <v>234</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>48</v>
@@ -9865,5 +9874,6 @@
     <hyperlink ref="S52" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/public/inv.xlsx
+++ b/public/inv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ProyectoVW\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC477F15-D98A-470F-8A4C-75A9204A21EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACECF12-0BD4-4F0C-A158-373AC7B70760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1602,9 +1602,6 @@
     <t>Modelo Monitor</t>
   </si>
   <si>
-    <t>Nombre de usuario</t>
-  </si>
-  <si>
     <t>Adicional</t>
   </si>
   <si>
@@ -1633,6 +1630,9 @@
   </si>
   <si>
     <t>Regulador</t>
+  </si>
+  <si>
+    <t>nombre de usuario</t>
   </si>
 </sst>
 </file>
@@ -2168,9 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2210,7 +2208,7 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2252,7 +2250,7 @@
         <v>523</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>10</v>
@@ -2294,22 +2292,22 @@
         <v>22</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="AG1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AI1" s="4" t="s">
         <v>24</v>
@@ -2330,16 +2328,16 @@
         <v>29</v>
       </c>
       <c r="AO1" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="AR1" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">

--- a/public/inv.xlsx
+++ b/public/inv.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ProyectoVW\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GestorDeTickets\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4AA7BD-3B6B-464F-8F93-AD2FD2171F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="535">
   <si>
     <t>Puesto</t>
   </si>
@@ -1638,7 +1637,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -2174,11 +2173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="M35" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9776,9 +9775,7 @@
       <c r="R57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S57" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="S57" s="6"/>
       <c r="T57" s="6" t="s">
         <v>38</v>
       </c>
@@ -9857,70 +9854,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="R19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="R24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="S6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="S23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="S33" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="S21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="S4" r:id="rId14" display="angeles.aguirre@vw-fersan.com.mx" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="S13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="S42" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="R13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="R42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="R8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="R21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="Q2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="R2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="S2" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="S9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="R9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q9" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="Q13" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="S8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="Q21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="Q32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="R25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="R41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="S31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="S25" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="S14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="S35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="S41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="S3" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="S20" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="S40" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="S37" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="S39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="S38" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="R12" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="S50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="S7" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="S43" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="S26" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="S12" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="S49" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="S36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="S15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q15" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="Q12" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q25" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="Q3" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q41" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="S34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="S51" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="R52" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="S52" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="S32" r:id="rId1"/>
+    <hyperlink ref="S22" r:id="rId2"/>
+    <hyperlink ref="Q8" r:id="rId3"/>
+    <hyperlink ref="Q19" r:id="rId4"/>
+    <hyperlink ref="Q24" r:id="rId5"/>
+    <hyperlink ref="S19" r:id="rId6"/>
+    <hyperlink ref="S24" r:id="rId7"/>
+    <hyperlink ref="R19" r:id="rId8"/>
+    <hyperlink ref="R24" r:id="rId9"/>
+    <hyperlink ref="S6" r:id="rId10"/>
+    <hyperlink ref="S23" r:id="rId11"/>
+    <hyperlink ref="S33" r:id="rId12"/>
+    <hyperlink ref="S21" r:id="rId13"/>
+    <hyperlink ref="S4" r:id="rId14" display="angeles.aguirre@vw-fersan.com.mx"/>
+    <hyperlink ref="S13" r:id="rId15"/>
+    <hyperlink ref="S42" r:id="rId16"/>
+    <hyperlink ref="R13" r:id="rId17"/>
+    <hyperlink ref="R42" r:id="rId18"/>
+    <hyperlink ref="R8" r:id="rId19"/>
+    <hyperlink ref="R21" r:id="rId20"/>
+    <hyperlink ref="Q2" r:id="rId21"/>
+    <hyperlink ref="R2" r:id="rId22"/>
+    <hyperlink ref="S2" r:id="rId23"/>
+    <hyperlink ref="S9" r:id="rId24"/>
+    <hyperlink ref="R9" r:id="rId25"/>
+    <hyperlink ref="Q9" r:id="rId26"/>
+    <hyperlink ref="Q13" r:id="rId27"/>
+    <hyperlink ref="Q42" r:id="rId28"/>
+    <hyperlink ref="S8" r:id="rId29"/>
+    <hyperlink ref="Q4" r:id="rId30"/>
+    <hyperlink ref="Q21" r:id="rId31"/>
+    <hyperlink ref="Q22" r:id="rId32"/>
+    <hyperlink ref="Q32" r:id="rId33"/>
+    <hyperlink ref="R25" r:id="rId34"/>
+    <hyperlink ref="R41" r:id="rId35"/>
+    <hyperlink ref="S31" r:id="rId36"/>
+    <hyperlink ref="S25" r:id="rId37"/>
+    <hyperlink ref="S14" r:id="rId38"/>
+    <hyperlink ref="S35" r:id="rId39"/>
+    <hyperlink ref="S41" r:id="rId40"/>
+    <hyperlink ref="S3" r:id="rId41"/>
+    <hyperlink ref="S20" r:id="rId42"/>
+    <hyperlink ref="S40" r:id="rId43"/>
+    <hyperlink ref="S37" r:id="rId44"/>
+    <hyperlink ref="S39" r:id="rId45"/>
+    <hyperlink ref="S38" r:id="rId46"/>
+    <hyperlink ref="R12" r:id="rId47"/>
+    <hyperlink ref="S50" r:id="rId48"/>
+    <hyperlink ref="S7" r:id="rId49"/>
+    <hyperlink ref="S43" r:id="rId50"/>
+    <hyperlink ref="S26" r:id="rId51"/>
+    <hyperlink ref="S12" r:id="rId52"/>
+    <hyperlink ref="S49" r:id="rId53"/>
+    <hyperlink ref="S36" r:id="rId54"/>
+    <hyperlink ref="S15" r:id="rId55"/>
+    <hyperlink ref="Q15" r:id="rId56"/>
+    <hyperlink ref="Q12" r:id="rId57"/>
+    <hyperlink ref="Q25" r:id="rId58"/>
+    <hyperlink ref="Q3" r:id="rId59"/>
+    <hyperlink ref="Q41" r:id="rId60"/>
+    <hyperlink ref="S34" r:id="rId61"/>
+    <hyperlink ref="S51" r:id="rId62"/>
+    <hyperlink ref="R52" r:id="rId63"/>
+    <hyperlink ref="S52" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId65"/>

--- a/public/inv.xlsx
+++ b/public/inv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GestorDeTickets\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ProyectoVW\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C908AF-29EC-4D2B-BDD3-5A13A3E8836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="535">
   <si>
     <t>Puesto</t>
   </si>
@@ -1637,7 +1638,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -2173,11 +2174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M35" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9775,7 +9776,9 @@
       <c r="R57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S57" s="6"/>
+      <c r="S57" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="T57" s="6" t="s">
         <v>38</v>
       </c>
@@ -9854,70 +9857,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S32" r:id="rId1"/>
-    <hyperlink ref="S22" r:id="rId2"/>
-    <hyperlink ref="Q8" r:id="rId3"/>
-    <hyperlink ref="Q19" r:id="rId4"/>
-    <hyperlink ref="Q24" r:id="rId5"/>
-    <hyperlink ref="S19" r:id="rId6"/>
-    <hyperlink ref="S24" r:id="rId7"/>
-    <hyperlink ref="R19" r:id="rId8"/>
-    <hyperlink ref="R24" r:id="rId9"/>
-    <hyperlink ref="S6" r:id="rId10"/>
-    <hyperlink ref="S23" r:id="rId11"/>
-    <hyperlink ref="S33" r:id="rId12"/>
-    <hyperlink ref="S21" r:id="rId13"/>
-    <hyperlink ref="S4" r:id="rId14" display="angeles.aguirre@vw-fersan.com.mx"/>
-    <hyperlink ref="S13" r:id="rId15"/>
-    <hyperlink ref="S42" r:id="rId16"/>
-    <hyperlink ref="R13" r:id="rId17"/>
-    <hyperlink ref="R42" r:id="rId18"/>
-    <hyperlink ref="R8" r:id="rId19"/>
-    <hyperlink ref="R21" r:id="rId20"/>
-    <hyperlink ref="Q2" r:id="rId21"/>
-    <hyperlink ref="R2" r:id="rId22"/>
-    <hyperlink ref="S2" r:id="rId23"/>
-    <hyperlink ref="S9" r:id="rId24"/>
-    <hyperlink ref="R9" r:id="rId25"/>
-    <hyperlink ref="Q9" r:id="rId26"/>
-    <hyperlink ref="Q13" r:id="rId27"/>
-    <hyperlink ref="Q42" r:id="rId28"/>
-    <hyperlink ref="S8" r:id="rId29"/>
-    <hyperlink ref="Q4" r:id="rId30"/>
-    <hyperlink ref="Q21" r:id="rId31"/>
-    <hyperlink ref="Q22" r:id="rId32"/>
-    <hyperlink ref="Q32" r:id="rId33"/>
-    <hyperlink ref="R25" r:id="rId34"/>
-    <hyperlink ref="R41" r:id="rId35"/>
-    <hyperlink ref="S31" r:id="rId36"/>
-    <hyperlink ref="S25" r:id="rId37"/>
-    <hyperlink ref="S14" r:id="rId38"/>
-    <hyperlink ref="S35" r:id="rId39"/>
-    <hyperlink ref="S41" r:id="rId40"/>
-    <hyperlink ref="S3" r:id="rId41"/>
-    <hyperlink ref="S20" r:id="rId42"/>
-    <hyperlink ref="S40" r:id="rId43"/>
-    <hyperlink ref="S37" r:id="rId44"/>
-    <hyperlink ref="S39" r:id="rId45"/>
-    <hyperlink ref="S38" r:id="rId46"/>
-    <hyperlink ref="R12" r:id="rId47"/>
-    <hyperlink ref="S50" r:id="rId48"/>
-    <hyperlink ref="S7" r:id="rId49"/>
-    <hyperlink ref="S43" r:id="rId50"/>
-    <hyperlink ref="S26" r:id="rId51"/>
-    <hyperlink ref="S12" r:id="rId52"/>
-    <hyperlink ref="S49" r:id="rId53"/>
-    <hyperlink ref="S36" r:id="rId54"/>
-    <hyperlink ref="S15" r:id="rId55"/>
-    <hyperlink ref="Q15" r:id="rId56"/>
-    <hyperlink ref="Q12" r:id="rId57"/>
-    <hyperlink ref="Q25" r:id="rId58"/>
-    <hyperlink ref="Q3" r:id="rId59"/>
-    <hyperlink ref="Q41" r:id="rId60"/>
-    <hyperlink ref="S34" r:id="rId61"/>
-    <hyperlink ref="S51" r:id="rId62"/>
-    <hyperlink ref="R52" r:id="rId63"/>
-    <hyperlink ref="S52" r:id="rId64"/>
+    <hyperlink ref="S32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="R19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="R24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="S6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="S33" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="S21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="S4" r:id="rId14" display="angeles.aguirre@vw-fersan.com.mx" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="S13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="S42" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="R13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="R42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="R8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="R21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Q2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="R2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="S2" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="S9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="R9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q9" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q13" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="S8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Q21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Q32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="R25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="S31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="S25" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="S14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="S35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="S41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="S3" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="S20" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="S40" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="S37" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="S39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="S38" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="R12" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="S50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="S7" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="S43" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="S26" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="S12" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="S49" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="S36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="S15" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q15" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="Q12" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q25" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="Q3" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q41" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="S34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="S51" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="R52" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="S52" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId65"/>

--- a/public/inv.xlsx
+++ b/public/inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ProyectoVW\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C908AF-29EC-4D2B-BDD3-5A13A3E8836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C49B5B-DCF7-496E-9B33-F784E25AF3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="541">
   <si>
     <t>Puesto</t>
   </si>
@@ -1633,6 +1633,24 @@
   </si>
   <si>
     <t>Office</t>
+  </si>
+  <si>
+    <t>Teclado Serie</t>
+  </si>
+  <si>
+    <t>Teclado Marca</t>
+  </si>
+  <si>
+    <t>Teclado Modelo</t>
+  </si>
+  <si>
+    <t>Raton Serie</t>
+  </si>
+  <si>
+    <t>Raton Marca</t>
+  </si>
+  <si>
+    <t>Raton Modelo</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1793,12 +1811,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1858,6 +1887,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2175,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR57"/>
+  <dimension ref="A1:AY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,9 +2250,15 @@
     <col min="42" max="42" width="17.5703125" customWidth="1"/>
     <col min="43" max="43" width="13.42578125" customWidth="1"/>
     <col min="44" max="44" width="19.42578125" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" customWidth="1"/>
+    <col min="46" max="46" width="14.5703125" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" customWidth="1"/>
+    <col min="48" max="48" width="13.140625" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>532</v>
       </c>
@@ -2350,8 +2391,26 @@
       <c r="AR1" s="4" t="s">
         <v>530</v>
       </c>
+      <c r="AS1" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="AT1" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="AU1" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="AV1" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="AW1" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="AX1" s="21" t="s">
+        <v>540</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -2484,8 +2543,26 @@
       <c r="AR2" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -2618,8 +2695,27 @@
       <c r="AR3" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY3" s="22"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2848,27 @@
       <c r="AR4" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY4" s="22"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -2886,8 +3001,27 @@
       <c r="AR5" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY5" s="22"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
@@ -3020,8 +3154,27 @@
       <c r="AR6" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY6" s="22"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
@@ -3154,8 +3307,27 @@
       <c r="AR7" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY7" s="22"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>124</v>
       </c>
@@ -3288,8 +3460,27 @@
       <c r="AR8" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY8" s="22"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>139</v>
       </c>
@@ -3422,8 +3613,27 @@
       <c r="AR9" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY9" s="22"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>152</v>
       </c>
@@ -3556,8 +3766,27 @@
       <c r="AR10" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY10" s="22"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>157</v>
       </c>
@@ -3690,8 +3919,27 @@
       <c r="AR11" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY11" s="22"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>161</v>
       </c>
@@ -3824,8 +4072,27 @@
       <c r="AR12" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY12" s="22"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>169</v>
       </c>
@@ -3958,8 +4225,27 @@
       <c r="AR13" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY13" s="22"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>182</v>
       </c>
@@ -4092,8 +4378,27 @@
       <c r="AR14" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AS14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY14" s="22"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>191</v>
       </c>
@@ -4226,8 +4531,27 @@
       <c r="AR15" s="6" t="s">
         <v>199</v>
       </c>
+      <c r="AS15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY15" s="22"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>200</v>
       </c>
@@ -4360,8 +4684,27 @@
       <c r="AR16" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="AS16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY16" s="22"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>207</v>
       </c>
@@ -4494,8 +4837,27 @@
       <c r="AR17" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY17" s="22"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>212</v>
       </c>
@@ -4628,8 +4990,27 @@
       <c r="AR18" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY18" s="22"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>217</v>
       </c>
@@ -4762,8 +5143,27 @@
       <c r="AR19" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY19" s="22"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>228</v>
       </c>
@@ -4896,8 +5296,27 @@
       <c r="AR20" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY20" s="22"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>235</v>
       </c>
@@ -5030,8 +5449,27 @@
       <c r="AR21" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY21" s="22"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>250</v>
       </c>
@@ -5164,8 +5602,27 @@
       <c r="AR22" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY22" s="22"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>263</v>
       </c>
@@ -5298,8 +5755,27 @@
       <c r="AR23" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY23" s="22"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>273</v>
       </c>
@@ -5432,8 +5908,27 @@
       <c r="AR24" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY24" s="22"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>282</v>
       </c>
@@ -5566,8 +6061,27 @@
       <c r="AR25" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY25" s="22"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>290</v>
       </c>
@@ -5700,8 +6214,27 @@
       <c r="AR26" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY26" s="22"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>298</v>
       </c>
@@ -5834,8 +6367,27 @@
       <c r="AR27" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY27" s="22"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>306</v>
       </c>
@@ -5968,8 +6520,27 @@
       <c r="AR28" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY28" s="22"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>311</v>
       </c>
@@ -6102,8 +6673,27 @@
       <c r="AR29" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY29" s="22"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>317</v>
       </c>
@@ -6236,8 +6826,27 @@
       <c r="AR30" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY30" s="22"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>326</v>
       </c>
@@ -6370,8 +6979,27 @@
       <c r="AR31" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY31" s="22"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>333</v>
       </c>
@@ -6504,8 +7132,27 @@
       <c r="AR32" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY32" s="22"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>343</v>
       </c>
@@ -6638,8 +7285,27 @@
       <c r="AR33" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY33" s="22"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>352</v>
       </c>
@@ -6772,8 +7438,27 @@
       <c r="AR34" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY34" s="22"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>359</v>
       </c>
@@ -6906,8 +7591,27 @@
       <c r="AR35" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY35" s="22"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>366</v>
       </c>
@@ -7040,8 +7744,27 @@
       <c r="AR36" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY36" s="22"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>373</v>
       </c>
@@ -7174,8 +7897,27 @@
       <c r="AR37" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY37" s="22"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>381</v>
       </c>
@@ -7308,8 +8050,27 @@
       <c r="AR38" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY38" s="22"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>387</v>
       </c>
@@ -7442,8 +8203,27 @@
       <c r="AR39" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY39" s="22"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>393</v>
       </c>
@@ -7576,8 +8356,27 @@
       <c r="AR40" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY40" s="22"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>317</v>
       </c>
@@ -7710,8 +8509,27 @@
       <c r="AR41" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY41" s="22"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>408</v>
       </c>
@@ -7844,8 +8662,27 @@
       <c r="AR42" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY42" s="22"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>418</v>
       </c>
@@ -7978,8 +8815,27 @@
       <c r="AR43" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY43" s="22"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>426</v>
       </c>
@@ -8112,8 +8968,27 @@
       <c r="AR44" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY44" s="22"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>434</v>
       </c>
@@ -8246,8 +9121,27 @@
       <c r="AR45" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY45" s="22"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>441</v>
       </c>
@@ -8380,8 +9274,27 @@
       <c r="AR46" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY46" s="22"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>448</v>
       </c>
@@ -8514,8 +9427,27 @@
       <c r="AR47" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY47" s="22"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>453</v>
       </c>
@@ -8648,8 +9580,27 @@
       <c r="AR48" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY48" s="22"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>458</v>
       </c>
@@ -8782,8 +9733,27 @@
       <c r="AR49" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY49" s="22"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>465</v>
       </c>
@@ -8916,8 +9886,27 @@
       <c r="AR50" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY50" s="22"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>471</v>
       </c>
@@ -9050,8 +10039,27 @@
       <c r="AR51" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY51" s="22"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>317</v>
       </c>
@@ -9184,8 +10192,27 @@
       <c r="AR52" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS52" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT52" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU52" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV52" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW52" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX52" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY52" s="22"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>483</v>
       </c>
@@ -9318,8 +10345,27 @@
       <c r="AR53" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY53" s="22"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>492</v>
       </c>
@@ -9452,8 +10498,27 @@
       <c r="AR54" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS54" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT54" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU54" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV54" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW54" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX54" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY54" s="22"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>496</v>
       </c>
@@ -9586,8 +10651,27 @@
       <c r="AR55" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY55" s="22"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>502</v>
       </c>
@@ -9720,8 +10804,27 @@
       <c r="AR56" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY56" s="22"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>502</v>
       </c>
@@ -9854,6 +10957,25 @@
       <c r="AR57" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AS57" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT57" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU57" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV57" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW57" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX57" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY57" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
